--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -682,7 +682,7 @@
         <v>43947</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44049</v>
       </c>
       <c r="B139">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,7 +682,7 @@
         <v>43947</v>
       </c>
       <c r="B37">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -706,7 +706,7 @@
         <v>43950</v>
       </c>
       <c r="B40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43957</v>
       </c>
       <c r="B47">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -914,7 +914,7 @@
         <v>43976</v>
       </c>
       <c r="B66">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44049</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44121</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,23 +4303,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4443,6 +4443,22 @@
       </c>
       <c r="B507">
         <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -642,7 +642,7 @@
         <v>43942</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -706,7 +706,7 @@
         <v>43950</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43957</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -914,7 +914,7 @@
         <v>43976</v>
       </c>
       <c r="B66">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44040</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44121</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +642,7 @@
         <v>43942</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44040</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44279</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44564</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,23 +4303,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,39 +4351,39 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,31 +4399,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B505">
         <v>3</v>
@@ -4431,34 +4431,50 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2">
         <v>44595</v>
       </c>
-      <c r="B509">
-        <v>1</v>
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B511">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44040</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44279</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>44599</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1426,7 @@
         <v>44040</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4475,6 +4475,22 @@
       </c>
       <c r="B511">
         <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +642,7 @@
         <v>43942</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44121</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4471,15 +4471,15 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44599</v>
+        <v>44596</v>
       </c>
       <c r="B511">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,9 +4487,41 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2">
         <v>44601</v>
       </c>
-      <c r="B513">
+      <c r="B515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B517">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44279</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4522,6 +4522,14 @@
         <v>44603</v>
       </c>
       <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B518">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44279</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4530,6 +4530,14 @@
         <v>44605</v>
       </c>
       <c r="B518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B519">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4538,6 +4538,22 @@
         <v>44606</v>
       </c>
       <c r="B519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B521">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4557,6 +4557,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B522"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4565,6 +4565,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +706,7 @@
         <v>43950</v>
       </c>
       <c r="B40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -914,7 +914,7 @@
         <v>43976</v>
       </c>
       <c r="B66">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44363</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4571,6 +4571,14 @@
       </c>
       <c r="B523">
         <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B524">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B524"/>
+  <dimension ref="A1:B526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +522,7 @@
         <v>43926</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -682,7 +682,7 @@
         <v>43947</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>43948</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>43949</v>
       </c>
       <c r="B39">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>43950</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43953</v>
       </c>
       <c r="B43">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43956</v>
       </c>
       <c r="B46">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43957</v>
       </c>
       <c r="B47">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43960</v>
       </c>
       <c r="B50">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -826,7 +826,7 @@
         <v>43965</v>
       </c>
       <c r="B55">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -922,7 +922,7 @@
         <v>43977</v>
       </c>
       <c r="B67">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>44012</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44015</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>44023</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44040</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44047</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44049</v>
       </c>
       <c r="B139">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>44051</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,23 +4303,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,39 +4351,39 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,31 +4399,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B505">
         <v>3</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B506">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,39 +4479,39 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,18 +4567,34 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>43990</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B526"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4583,17 +4583,25 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
         <v>44618</v>
       </c>
-      <c r="B526">
+      <c r="B527">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44220</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4602,6 +4602,22 @@
         <v>44618</v>
       </c>
       <c r="B527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B529">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B529"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,287 +2471,287 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44564</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,23 +4303,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,39 +4351,39 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,31 +4399,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B505">
         <v>3</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,39 +4479,39 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B512">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4618,6 +4618,22 @@
         <v>44623</v>
       </c>
       <c r="B529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B531">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,23 +4303,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,39 +4351,39 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,31 +4399,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B505">
         <v>3</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B506">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,39 +4479,39 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4634,6 +4634,14 @@
         <v>44625</v>
       </c>
       <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B532">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4645,6 +4645,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,23 +4303,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,39 +4351,39 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,31 +4399,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B505">
         <v>3</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,39 +4479,39 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B512">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,47 +4567,47 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,9 +4647,49 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
         <v>44629</v>
       </c>
-      <c r="B533">
+      <c r="B534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B538">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B538"/>
+  <dimension ref="A1:B540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44636</v>
+        <v>44632</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,9 +4687,25 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
         <v>44638</v>
       </c>
-      <c r="B538">
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B540">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B540"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4706,6 +4706,22 @@
         <v>44639</v>
       </c>
       <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B542">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44093</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4722,6 +4722,14 @@
         <v>44649</v>
       </c>
       <c r="B542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B543">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44093</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,287 +2471,287 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B533">
         <v>1</v>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,287 +2471,287 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4730,6 +4730,22 @@
         <v>44656</v>
       </c>
       <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>44661</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>44667</v>
+      </c>
+      <c r="B545">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B545"/>
+  <dimension ref="A1:B552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44636</v>
+        <v>44632</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,23 +4719,23 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,10 +4743,66 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
+        <v>44661</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
         <v>44667</v>
       </c>
-      <c r="B545">
-        <v>1</v>
+      <c r="B546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>44676</v>
+      </c>
+      <c r="B547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>44695</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>44709</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B552">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B552"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44626</v>
+        <v>44629</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44627</v>
+        <v>44630</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44629</v>
+        <v>44632</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44632</v>
+        <v>44638</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44636</v>
+        <v>44639</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44638</v>
+        <v>44648</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,15 +4711,15 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44639</v>
+        <v>44649</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44648</v>
+        <v>44656</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44661</v>
+        <v>44676</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44667</v>
+        <v>44680</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44676</v>
+        <v>44687</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44680</v>
+        <v>44695</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,23 +4775,23 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44687</v>
+        <v>44709</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44695</v>
+        <v>44711</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44709</v>
+        <v>44715</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,10 +4799,18 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44711</v>
+        <v>44716</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>44718</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44220</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4567,47 +4567,47 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B532">
         <v>1</v>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,287 +2471,287 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,39 +4567,39 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44613</v>
+        <v>44611</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44615</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44616</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,15 +4607,15 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44621</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44623</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44624</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44626</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44636</v>
+        <v>44632</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44667</v>
+        <v>44661</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,39 +4743,39 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44676</v>
+        <v>44667</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44680</v>
+        <v>44676</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44695</v>
+        <v>44687</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44709</v>
+        <v>44695</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,9 +4807,17 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
         <v>44718</v>
       </c>
-      <c r="B553">
+      <c r="B554">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44632</v>
+        <v>44636</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44639</v>
+        <v>44648</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44649</v>
+        <v>44656</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44656</v>
+        <v>44661</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44661</v>
+        <v>44667</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,39 +4743,39 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44667</v>
+        <v>44676</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44687</v>
+        <v>44695</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44695</v>
+        <v>44709</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44709</v>
+        <v>44711</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,17 +4807,9 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44716</v>
+        <v>44718</v>
       </c>
       <c r="B553">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2">
-      <c r="A554" s="2">
-        <v>44718</v>
-      </c>
-      <c r="B554">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44636</v>
+        <v>44632</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44667</v>
+        <v>44661</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,39 +4743,39 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44676</v>
+        <v>44667</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44680</v>
+        <v>44676</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44695</v>
+        <v>44687</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44709</v>
+        <v>44695</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,9 +4807,17 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
         <v>44718</v>
       </c>
-      <c r="B553">
+      <c r="B554">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44636</v>
+        <v>44632</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,23 +4719,23 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44667</v>
+        <v>44661</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -4751,39 +4751,39 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44676</v>
+        <v>44667</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44680</v>
+        <v>44676</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44695</v>
+        <v>44687</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44709</v>
+        <v>44695</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,23 +4791,23 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,9 +4815,25 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
         <v>44718</v>
       </c>
-      <c r="B554">
+      <c r="B555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B556">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B556"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4834,6 +4834,14 @@
         <v>44747</v>
       </c>
       <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B557">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44626</v>
+        <v>44629</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44627</v>
+        <v>44630</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44629</v>
+        <v>44632</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44632</v>
+        <v>44638</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44636</v>
+        <v>44639</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44638</v>
+        <v>44648</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,15 +4711,15 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44639</v>
+        <v>44649</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44648</v>
+        <v>44656</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44661</v>
+        <v>44676</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44667</v>
+        <v>44680</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44676</v>
+        <v>44687</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44680</v>
+        <v>44695</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,23 +4775,23 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44687</v>
+        <v>44709</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44695</v>
+        <v>44711</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44709</v>
+        <v>44715</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44711</v>
+        <v>44716</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44715</v>
+        <v>44718</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44716</v>
+        <v>44747</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44718</v>
+        <v>44754</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,9 +4839,25 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44754</v>
+        <v>44757</v>
       </c>
       <c r="B557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B559">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44636</v>
+        <v>44632</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44667</v>
+        <v>44661</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,39 +4743,39 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44676</v>
+        <v>44667</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44680</v>
+        <v>44676</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44695</v>
+        <v>44687</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44709</v>
+        <v>44695</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44718</v>
+        <v>44716</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44747</v>
+        <v>44718</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,15 +4839,15 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44760</v>
+        <v>44757</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -4855,9 +4855,41 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
         <v>44761</v>
       </c>
-      <c r="B559">
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>44766</v>
+      </c>
+      <c r="B563">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44279</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -826,7 +826,7 @@
         <v>43965</v>
       </c>
       <c r="B55">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44279</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44279</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44636</v>
+        <v>44632</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,23 +4719,23 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44667</v>
+        <v>44661</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -4751,39 +4751,39 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44676</v>
+        <v>44667</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44680</v>
+        <v>44676</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44695</v>
+        <v>44687</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44709</v>
+        <v>44695</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,23 +4791,23 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44718</v>
+        <v>44716</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44747</v>
+        <v>44718</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,15 +4847,15 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44760</v>
+        <v>44757</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -4863,15 +4863,15 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,17 +4879,33 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44765</v>
+        <v>44762</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
         <v>44766</v>
       </c>
-      <c r="B563">
+      <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B565">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44632</v>
+        <v>44636</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44639</v>
+        <v>44648</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,23 +4719,23 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44649</v>
+        <v>44656</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44656</v>
+        <v>44661</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44661</v>
+        <v>44667</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -4751,39 +4751,39 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44667</v>
+        <v>44676</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44687</v>
+        <v>44695</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44695</v>
+        <v>44709</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,23 +4791,23 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44709</v>
+        <v>44711</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44716</v>
+        <v>44718</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44718</v>
+        <v>44747</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44747</v>
+        <v>44754</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44754</v>
+        <v>44756</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,15 +4847,15 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -4863,15 +4863,15 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,23 +4879,23 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44762</v>
+        <v>44765</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="B563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44766</v>
+        <v>44775</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B565">
         <v>1</v>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B565"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44632</v>
+        <v>44636</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44639</v>
+        <v>44648</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44649</v>
+        <v>44656</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44656</v>
+        <v>44661</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44661</v>
+        <v>44667</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,39 +4743,39 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44667</v>
+        <v>44676</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44687</v>
+        <v>44695</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44695</v>
+        <v>44709</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44709</v>
+        <v>44711</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44716</v>
+        <v>44718</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44718</v>
+        <v>44747</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44747</v>
+        <v>44754</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44754</v>
+        <v>44756</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,15 +4839,15 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -4855,15 +4855,15 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44762</v>
+        <v>44765</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44766</v>
+        <v>44775</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,17 +4895,9 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B564">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2">
-      <c r="A565" s="2">
-        <v>44777</v>
-      </c>
-      <c r="B565">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4898,6 +4898,14 @@
         <v>44777</v>
       </c>
       <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B565">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B565"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,15 +4055,15 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,23 +4071,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44629</v>
+        <v>44626</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44630</v>
+        <v>44627</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44632</v>
+        <v>44629</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44636</v>
+        <v>44630</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44638</v>
+        <v>44632</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44639</v>
+        <v>44636</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44648</v>
+        <v>44638</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,15 +4711,15 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44656</v>
+        <v>44648</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44661</v>
+        <v>44649</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44667</v>
+        <v>44656</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44676</v>
+        <v>44661</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44680</v>
+        <v>44667</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44687</v>
+        <v>44676</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44695</v>
+        <v>44680</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,23 +4775,23 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44709</v>
+        <v>44687</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44711</v>
+        <v>44695</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44715</v>
+        <v>44709</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44716</v>
+        <v>44711</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44718</v>
+        <v>44715</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44747</v>
+        <v>44716</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44754</v>
+        <v>44718</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44756</v>
+        <v>44747</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,47 +4839,47 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44757</v>
+        <v>44754</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44761</v>
+        <v>44757</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44762</v>
+        <v>44760</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44765</v>
+        <v>44761</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44766</v>
+        <v>44762</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -4887,15 +4887,15 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44775</v>
+        <v>44765</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44777</v>
+        <v>44766</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,9 +4903,57 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
         <v>44786</v>
       </c>
-      <c r="B565">
+      <c r="B567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B571">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44632</v>
+        <v>44636</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44639</v>
+        <v>44648</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,23 +4719,23 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44649</v>
+        <v>44656</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44656</v>
+        <v>44661</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44661</v>
+        <v>44667</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -4751,39 +4751,39 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44667</v>
+        <v>44676</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44687</v>
+        <v>44695</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44695</v>
+        <v>44709</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,23 +4791,23 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44709</v>
+        <v>44711</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44716</v>
+        <v>44718</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44718</v>
+        <v>44747</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44747</v>
+        <v>44754</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44754</v>
+        <v>44756</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,15 +4847,15 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -4863,15 +4863,15 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,23 +4879,23 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44762</v>
+        <v>44765</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="B563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44766</v>
+        <v>44775</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,49 +4911,41 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44777</v>
+        <v>44786</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44786</v>
+        <v>44789</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44790</v>
+        <v>44792</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B570">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" s="2">
-        <v>44796</v>
-      </c>
-      <c r="B571">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>44790</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,39 +4055,39 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44632</v>
+        <v>44636</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44639</v>
+        <v>44648</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,23 +4711,23 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44649</v>
+        <v>44656</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44656</v>
+        <v>44661</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44661</v>
+        <v>44667</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,39 +4743,39 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44667</v>
+        <v>44676</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44680</v>
+        <v>44687</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44687</v>
+        <v>44695</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44695</v>
+        <v>44709</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44709</v>
+        <v>44711</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44716</v>
+        <v>44718</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44718</v>
+        <v>44747</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44747</v>
+        <v>44754</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44754</v>
+        <v>44756</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,15 +4839,15 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -4855,15 +4855,15 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,23 +4871,23 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44762</v>
+        <v>44765</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44766</v>
+        <v>44775</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,39 +4903,39 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44777</v>
+        <v>44786</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44786</v>
+        <v>44789</v>
       </c>
       <c r="B566">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44790</v>
+        <v>44792</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44796</v>
+        <v>44813</v>
       </c>
       <c r="B570">
         <v>1</v>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44412</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44415</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44427</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44430</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,23 +4055,23 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="B460">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -4079,15 +4079,15 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44448</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44450</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44454</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44457</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44494</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44514</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44524</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44544</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44548</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44552</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44556</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44603</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44629</v>
+        <v>44626</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44630</v>
+        <v>44627</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44632</v>
+        <v>44629</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44636</v>
+        <v>44630</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44638</v>
+        <v>44632</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44639</v>
+        <v>44636</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44648</v>
+        <v>44638</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,15 +4711,15 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44656</v>
+        <v>44648</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44661</v>
+        <v>44649</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44667</v>
+        <v>44656</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44676</v>
+        <v>44661</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44680</v>
+        <v>44667</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44687</v>
+        <v>44676</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44695</v>
+        <v>44680</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,23 +4775,23 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44709</v>
+        <v>44687</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44711</v>
+        <v>44695</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44715</v>
+        <v>44709</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44716</v>
+        <v>44711</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44718</v>
+        <v>44715</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44747</v>
+        <v>44716</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44754</v>
+        <v>44718</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44756</v>
+        <v>44747</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,47 +4839,47 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44757</v>
+        <v>44754</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44760</v>
+        <v>44756</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44761</v>
+        <v>44757</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44762</v>
+        <v>44760</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44765</v>
+        <v>44761</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44766</v>
+        <v>44762</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -4887,15 +4887,15 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44775</v>
+        <v>44765</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44777</v>
+        <v>44766</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,15 +4903,15 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44786</v>
+        <v>44775</v>
       </c>
       <c r="B565">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44789</v>
+        <v>44777</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,15 +4919,15 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44790</v>
+        <v>44786</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44792</v>
+        <v>44789</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -4935,17 +4935,41 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44796</v>
+        <v>44790</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
         <v>44813</v>
       </c>
-      <c r="B570">
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B573">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B573"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4970,6 +4970,22 @@
         <v>44816</v>
       </c>
       <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B575">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44134</v>
+        <v>44136</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44146</v>
+        <v>44148</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44157</v>
+        <v>44159</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44174</v>
+        <v>44177</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44185</v>
+        <v>44188</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44203</v>
+        <v>44206</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B270">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B274">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B279">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B280">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B281">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B282">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B283">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B284">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B286">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B292">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B293">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B297">
         <v>21</v>
@@ -2767,399 +2767,399 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B298">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B299">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B301">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B306">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B307">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B308">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B316">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B319">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B331">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B339">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B340">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B341">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B346">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,127 +3167,127 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B348">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B349">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B351">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B361">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B369">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="B380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,71 +3447,71 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B389">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,71 +3543,71 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,111 +3631,111 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B407">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B413">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -3743,55 +3743,55 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,15 +3831,15 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B432">
         <v>6</v>
@@ -3847,15 +3847,15 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,47 +3863,47 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,15 +3919,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,15 +3943,15 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -3959,15 +3959,15 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44412</v>
+        <v>44414</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,15 +3975,15 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44415</v>
+        <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,15 +4039,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44430</v>
+        <v>44432</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -4055,23 +4055,23 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -4079,15 +4079,15 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44457</v>
+        <v>44463</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44494</v>
+        <v>44506</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44514</v>
+        <v>44517</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44524</v>
+        <v>44543</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44544</v>
+        <v>44548</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44564</v>
+        <v>44570</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,23 +4311,23 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,39 +4359,39 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -4407,31 +4407,31 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -4439,31 +4439,31 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4487,39 +4487,39 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B514">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,47 +4575,47 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44626</v>
+        <v>44629</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44627</v>
+        <v>44630</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44629</v>
+        <v>44632</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44632</v>
+        <v>44638</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44636</v>
+        <v>44639</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44638</v>
+        <v>44648</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,15 +4711,15 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44639</v>
+        <v>44649</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44648</v>
+        <v>44656</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44661</v>
+        <v>44676</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44667</v>
+        <v>44680</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44676</v>
+        <v>44687</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44680</v>
+        <v>44695</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,23 +4775,23 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44687</v>
+        <v>44709</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44695</v>
+        <v>44711</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44709</v>
+        <v>44715</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44711</v>
+        <v>44716</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44715</v>
+        <v>44718</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44716</v>
+        <v>44747</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44718</v>
+        <v>44754</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44747</v>
+        <v>44756</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,47 +4839,47 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44754</v>
+        <v>44757</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44760</v>
+        <v>44762</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44761</v>
+        <v>44765</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44762</v>
+        <v>44766</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -4887,15 +4887,15 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44765</v>
+        <v>44775</v>
       </c>
       <c r="B563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44766</v>
+        <v>44777</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,15 +4903,15 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44775</v>
+        <v>44786</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44777</v>
+        <v>44789</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,15 +4919,15 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44786</v>
+        <v>44790</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44789</v>
+        <v>44792</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -4935,15 +4935,15 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44790</v>
+        <v>44796</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44792</v>
+        <v>44813</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44796</v>
+        <v>44816</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44813</v>
+        <v>44824</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44816</v>
+        <v>44828</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44824</v>
+        <v>44839</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44828</v>
+        <v>44841</v>
       </c>
       <c r="B575">
         <v>1</v>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B575"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4989,6 +4989,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:B580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44813</v>
+        <v>44805</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -4951,15 +4951,15 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44816</v>
+        <v>44812</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44824</v>
+        <v>44813</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44828</v>
+        <v>44814</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44839</v>
+        <v>44816</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44841</v>
+        <v>44824</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,9 +4991,41 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>44839</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
         <v>44845</v>
       </c>
-      <c r="B576">
+      <c r="B579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B580">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B580"/>
+  <dimension ref="A1:B585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4906,12 +4906,12 @@
         <v>44786</v>
       </c>
       <c r="B565">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44789</v>
+        <v>44787</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -4919,23 +4919,23 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44792</v>
+        <v>44790</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44796</v>
+        <v>44792</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44805</v>
+        <v>44794</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -4951,15 +4951,15 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44812</v>
+        <v>44795</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44813</v>
+        <v>44796</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44814</v>
+        <v>44805</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,15 +4975,15 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44816</v>
+        <v>44812</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44824</v>
+        <v>44813</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44828</v>
+        <v>44814</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44839</v>
+        <v>44816</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44841</v>
+        <v>44824</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44845</v>
+        <v>44828</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -5023,9 +5023,49 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
+        <v>44839</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
         <v>44869</v>
       </c>
-      <c r="B580">
+      <c r="B583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>44873</v>
+      </c>
+      <c r="B585">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44775</v>
+        <v>44767</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44777</v>
+        <v>44775</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,23 +4903,23 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44786</v>
+        <v>44777</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44789</v>
+        <v>44787</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -4927,23 +4927,23 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44792</v>
+        <v>44790</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44794</v>
+        <v>44792</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44805</v>
+        <v>44796</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,23 +4975,23 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44812</v>
+        <v>44805</v>
       </c>
       <c r="B574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="B575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44824</v>
+        <v>44816</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44828</v>
+        <v>44824</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44839</v>
+        <v>44828</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44841</v>
+        <v>44839</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44845</v>
+        <v>44841</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44869</v>
+        <v>44845</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44872</v>
+        <v>44862</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -5063,9 +5063,41 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
         <v>44873</v>
       </c>
-      <c r="B585">
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>44878</v>
+      </c>
+      <c r="B589">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -402,7 +402,7 @@
         <v>43897</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>43904</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>43907</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>43908</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>43910</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>43912</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>43914</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>43915</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>43917</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>43919</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>43920</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>43921</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>43922</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>43923</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>43924</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>43926</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>43927</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>43928</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>43929</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>43930</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>43931</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>43932</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>43933</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>43935</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>43936</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>43937</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>43938</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>43939</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>43940</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>43941</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>43942</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>43943</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>43944</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>43945</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>43946</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>43947</v>
       </c>
       <c r="B37">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>43948</v>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>43949</v>
       </c>
       <c r="B39">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>43950</v>
       </c>
       <c r="B40">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>43951</v>
       </c>
       <c r="B41">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43953</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43954</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43955</v>
       </c>
       <c r="B45">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43956</v>
       </c>
       <c r="B46">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43957</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43958</v>
       </c>
       <c r="B48">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43959</v>
       </c>
       <c r="B49">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43960</v>
       </c>
       <c r="B50">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43961</v>
       </c>
       <c r="B51">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43962</v>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>43963</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>43964</v>
       </c>
       <c r="B54">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>43965</v>
       </c>
       <c r="B55">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>43966</v>
       </c>
       <c r="B56">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>43968</v>
       </c>
       <c r="B58">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>43969</v>
       </c>
       <c r="B59">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>43970</v>
       </c>
       <c r="B60">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43971</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>43972</v>
       </c>
       <c r="B62">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>43973</v>
       </c>
       <c r="B63">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>43975</v>
       </c>
       <c r="B65">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>43976</v>
       </c>
       <c r="B66">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>43977</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>43978</v>
       </c>
       <c r="B68">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="B69">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43980</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>43981</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>43982</v>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>43983</v>
       </c>
       <c r="B73">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>43984</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>43985</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>43986</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>43988</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>43989</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>43990</v>
       </c>
       <c r="B80">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>43991</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>43992</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>43993</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>43994</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>43995</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>43996</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>43997</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>43998</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>43999</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44000</v>
       </c>
       <c r="B90">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44001</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44002</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44003</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>44004</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>44005</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>44006</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44007</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44008</v>
       </c>
       <c r="B98">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>44009</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44010</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44011</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>44012</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>44013</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>44014</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44015</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>44016</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>44017</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>44018</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>44019</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>44020</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44021</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>44022</v>
       </c>
       <c r="B112">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>44023</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44024</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44025</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>44026</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>44027</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44028</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>44029</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>44030</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>44031</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44032</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>44033</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>44034</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>44035</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>44036</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>44037</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>44038</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44039</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44040</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>44041</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44042</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44043</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>44044</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44045</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>44046</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44047</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44048</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44049</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>44050</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>44051</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>44052</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44053</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>44054</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>44055</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44056</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>44057</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>44058</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>44059</v>
       </c>
       <c r="B149">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44060</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>44061</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>44062</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>44063</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>44064</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>44065</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>44066</v>
       </c>
       <c r="B156">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>44067</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>44068</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>44069</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>44070</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44071</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>44072</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>44073</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>44074</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>44076</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>44077</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>44078</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44079</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>44080</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>44081</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44082</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>44083</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44084</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>44085</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>44086</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>44088</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>44089</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>44091</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>44092</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44093</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>44095</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44097</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44098</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>44100</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>44103</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>44105</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>44106</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44109</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>44110</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44111</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>44112</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44113</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44115</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>44116</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>44118</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>44119</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>44120</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44121</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>44122</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>44123</v>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>44124</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>44125</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>44126</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44128</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>44129</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>44134</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>44136</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44137</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44140</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44141</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>44142</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>44143</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>44145</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>44146</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>44148</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>44149</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44151</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44152</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>44153</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>44154</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>44155</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>44156</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>44157</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>44159</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>44160</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>44161</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>44165</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44168</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>44171</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>44172</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>44174</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>44177</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44178</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44179</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44181</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44182</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>44183</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>44185</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>44188</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>44190</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>44191</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44192</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>44193</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>44194</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>44196</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>44198</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44202</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>44203</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>44206</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>44207</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>44208</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44210</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44211</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>44212</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>44213</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>44214</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>44215</v>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44216</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44217</v>
       </c>
       <c r="B259">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44219</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44220</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44221</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>44222</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>44223</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>44224</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44225</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>44226</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>44227</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>44228</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>44229</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44230</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>44231</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>44232</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>44233</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>44234</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>44235</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44236</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>44237</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>44238</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>44239</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>44240</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>44241</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>44242</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44243</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44244</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>44245</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>44246</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>44247</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>44248</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>44249</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>44250</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>44251</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>44252</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>44253</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44254</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>44255</v>
       </c>
       <c r="B296">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>44256</v>
       </c>
       <c r="B297">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>44257</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>44258</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>44259</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>44260</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44261</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44262</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44263</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44264</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>44265</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>44266</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>44267</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>44268</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>44269</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44270</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44271</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44272</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44273</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44274</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44275</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44276</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44277</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44278</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44279</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44280</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44281</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>44282</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>44283</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>44284</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>44285</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>44286</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44287</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>44288</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>44289</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>44290</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>44291</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>44292</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>44293</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>44294</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>44295</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>44296</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>44297</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>44298</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>44299</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44300</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44301</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44302</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>44303</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>44304</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44305</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>44306</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>44307</v>
       </c>
       <c r="B348">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>44308</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>44309</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>44310</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44311</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44312</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>44313</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>44314</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>44315</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44316</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44317</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44318</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>44319</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>44320</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>44321</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>44322</v>
       </c>
       <c r="B363">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>44323</v>
       </c>
       <c r="B364">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>44324</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>44325</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>44326</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>44327</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44328</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>44329</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>44330</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>44331</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>44332</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44333</v>
       </c>
       <c r="B374">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44334</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>44335</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>44336</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>44337</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44339</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44340</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>44341</v>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>44342</v>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>44343</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>44344</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>44345</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>44346</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44347</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>44348</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>44350</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>44351</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44352</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>44354</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>44355</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>44356</v>
       </c>
       <c r="B394">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>44357</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>44358</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44359</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>44360</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>44361</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44362</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44363</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44365</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44366</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44367</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44368</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44370</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44371</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44372</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44373</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44375</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44376</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44377</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44378</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44379</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44380</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44381</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44382</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44383</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>44384</v>
       </c>
       <c r="B419">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>44385</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>44386</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>44387</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>44388</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>44389</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>44390</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>44391</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>44392</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44393</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>44394</v>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>44395</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>44396</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44397</v>
       </c>
       <c r="B432">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>44398</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44399</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44400</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44401</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44402</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44403</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>44404</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44405</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44407</v>
       </c>
       <c r="B441">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44408</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>44409</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44410</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44411</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44412</v>
       </c>
       <c r="B446">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44414</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44415</v>
       </c>
       <c r="B448">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44417</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>44419</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>44420</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>44421</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44425</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44426</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>44427</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>44429</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>44430</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>44432</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>44437</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>44439</v>
       </c>
       <c r="B460">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>44441</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>44448</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>44450</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>44453</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>44454</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>44457</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>44463</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>44468</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>44470</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>44472</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>44473</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>44494</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>44506</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>44514</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>44517</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>44521</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>44524</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>44543</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>44544</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>44548</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>44551</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>44552</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>44555</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>44556</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>44559</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>44560</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>44561</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>44563</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>44564</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>44570</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>44573</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>44574</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>44576</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>44577</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>44579</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>44580</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>44581</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>44583</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>44584</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>44585</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>44586</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>44587</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>44588</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>44589</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>44590</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>44591</v>
       </c>
       <c r="B506">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>44592</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>44593</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>44594</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>44595</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>44596</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>44597</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>44599</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>44600</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>44601</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>44602</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>44603</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>44605</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>44606</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>44607</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>44608</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>44611</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>44612</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>44613</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>44615</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>44616</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>44617</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>44618</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>44621</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>44623</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>44624</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>44625</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>44627</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>44629</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>44630</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>44632</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>44636</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>44638</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>44639</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>44648</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>44649</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>44656</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>44661</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>44667</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>44676</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>44680</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44687</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44695</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>44709</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>44711</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>44715</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>44716</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>44718</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>44747</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>44754</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>44756</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>44757</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>44760</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>44761</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>44762</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>44765</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>44766</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>44767</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>44775</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>44777</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>44786</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>44787</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>44789</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>44790</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>44792</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>44794</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>44795</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>44796</v>
       </c>
       <c r="B573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>44805</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>44812</v>
       </c>
       <c r="B575">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>44813</v>
       </c>
       <c r="B576">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>44814</v>
       </c>
       <c r="B577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>44816</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>44824</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>44828</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>44839</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>44841</v>
       </c>
       <c r="B582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>44845</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>44862</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>44869</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>44872</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>44873</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44874</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>44878</v>
       </c>
       <c r="B589">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -402,7 +402,7 @@
         <v>43897</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>43904</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>43907</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>43908</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>43910</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>43912</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>43914</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>43915</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>43917</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>43919</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>43920</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>43921</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>43922</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>43923</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>43924</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>43926</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>43927</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>43928</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>43929</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>43930</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>43931</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>43932</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>43933</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>43935</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>43936</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>43937</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>43938</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>43939</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>43940</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>43941</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>43942</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>43943</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>43944</v>
       </c>
       <c r="B34">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>43945</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>43946</v>
       </c>
       <c r="B36">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>43947</v>
       </c>
       <c r="B37">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>43948</v>
       </c>
       <c r="B38">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>43949</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>43950</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>43951</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43953</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43954</v>
       </c>
       <c r="B44">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43955</v>
       </c>
       <c r="B45">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43956</v>
       </c>
       <c r="B46">
-        <v>194</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43957</v>
       </c>
       <c r="B47">
-        <v>170</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43958</v>
       </c>
       <c r="B48">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43959</v>
       </c>
       <c r="B49">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43960</v>
       </c>
       <c r="B50">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43961</v>
       </c>
       <c r="B51">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43962</v>
       </c>
       <c r="B52">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>43963</v>
       </c>
       <c r="B53">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>43964</v>
       </c>
       <c r="B54">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>43965</v>
       </c>
       <c r="B55">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>43966</v>
       </c>
       <c r="B56">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>43968</v>
       </c>
       <c r="B58">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>43969</v>
       </c>
       <c r="B59">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>43970</v>
       </c>
       <c r="B60">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43971</v>
       </c>
       <c r="B61">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>43972</v>
       </c>
       <c r="B62">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>43973</v>
       </c>
       <c r="B63">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>43975</v>
       </c>
       <c r="B65">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>43976</v>
       </c>
       <c r="B66">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>43977</v>
       </c>
       <c r="B67">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>43978</v>
       </c>
       <c r="B68">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="B69">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43980</v>
       </c>
       <c r="B70">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>43981</v>
       </c>
       <c r="B71">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>43982</v>
       </c>
       <c r="B72">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>43983</v>
       </c>
       <c r="B73">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>43984</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>43985</v>
       </c>
       <c r="B75">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>43986</v>
       </c>
       <c r="B76">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>43988</v>
       </c>
       <c r="B78">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>43989</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>43990</v>
       </c>
       <c r="B80">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>43991</v>
       </c>
       <c r="B81">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>43992</v>
       </c>
       <c r="B82">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>43993</v>
       </c>
       <c r="B83">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>43994</v>
       </c>
       <c r="B84">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>43995</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>43996</v>
       </c>
       <c r="B86">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>43997</v>
       </c>
       <c r="B87">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>43998</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>43999</v>
       </c>
       <c r="B89">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44000</v>
       </c>
       <c r="B90">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44001</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44002</v>
       </c>
       <c r="B92">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44003</v>
       </c>
       <c r="B93">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>44004</v>
       </c>
       <c r="B94">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>44005</v>
       </c>
       <c r="B95">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>44006</v>
       </c>
       <c r="B96">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44007</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44008</v>
       </c>
       <c r="B98">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>44009</v>
       </c>
       <c r="B99">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44010</v>
       </c>
       <c r="B100">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44011</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>44012</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>44013</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>44014</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44015</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>44016</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>44017</v>
       </c>
       <c r="B107">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>44018</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>44019</v>
       </c>
       <c r="B109">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>44020</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44021</v>
       </c>
       <c r="B111">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>44022</v>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>44023</v>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44024</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44025</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>44026</v>
       </c>
       <c r="B116">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>44027</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44028</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>44029</v>
       </c>
       <c r="B119">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>44030</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>44031</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44032</v>
       </c>
       <c r="B122">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>44033</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>44034</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>44035</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>44036</v>
       </c>
       <c r="B126">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>44037</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>44038</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44039</v>
       </c>
       <c r="B129">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44040</v>
       </c>
       <c r="B130">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>44041</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44042</v>
       </c>
       <c r="B132">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44043</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>44044</v>
       </c>
       <c r="B134">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44045</v>
       </c>
       <c r="B135">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>44046</v>
       </c>
       <c r="B136">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44047</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44048</v>
       </c>
       <c r="B138">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44049</v>
       </c>
       <c r="B139">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>44050</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>44051</v>
       </c>
       <c r="B141">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>44052</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44053</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>44054</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>44055</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44056</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>44057</v>
       </c>
       <c r="B147">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>44058</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>44059</v>
       </c>
       <c r="B149">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44060</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>44061</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>44062</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>44063</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>44064</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>44065</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>44066</v>
       </c>
       <c r="B156">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>44067</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>44068</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>44069</v>
       </c>
       <c r="B159">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>44070</v>
       </c>
       <c r="B160">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44071</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>44072</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>44073</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>44074</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>44076</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>44077</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>44078</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44079</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>44080</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>44081</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44082</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>44083</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44084</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>44085</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>44086</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>44088</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>44089</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>44091</v>
       </c>
       <c r="B178">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>44092</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44093</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>44095</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44097</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44098</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>44100</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>44103</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>44105</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>44106</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44109</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>44110</v>
       </c>
       <c r="B189">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44111</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>44112</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44113</v>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44115</v>
       </c>
       <c r="B193">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>44116</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>44118</v>
       </c>
       <c r="B195">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>44119</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>44120</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44121</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>44122</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>44123</v>
       </c>
       <c r="B200">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>44124</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>44125</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>44126</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44128</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>44129</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>44134</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>44136</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44137</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44140</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44141</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>44142</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>44143</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>44145</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>44146</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>44148</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>44149</v>
       </c>
       <c r="B216">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44151</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44152</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>44153</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>44154</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>44155</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>44156</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>44157</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>44159</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>44160</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>44161</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>44165</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44168</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>44171</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>44172</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>44174</v>
       </c>
       <c r="B231">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>44177</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44178</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44179</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44181</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44182</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>44183</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>44185</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>44188</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>44190</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>44191</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44192</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>44193</v>
       </c>
       <c r="B243">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>44194</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>44196</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>44198</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44202</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>44203</v>
       </c>
       <c r="B248">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>44206</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>44207</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>44208</v>
       </c>
       <c r="B251">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44210</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44211</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>44212</v>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>44213</v>
       </c>
       <c r="B255">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>44214</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>44215</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44216</v>
       </c>
       <c r="B258">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44217</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44219</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44220</v>
       </c>
       <c r="B261">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44221</v>
       </c>
       <c r="B262">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>44222</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>44223</v>
       </c>
       <c r="B264">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>44224</v>
       </c>
       <c r="B265">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44225</v>
       </c>
       <c r="B266">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>44226</v>
       </c>
       <c r="B267">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>44227</v>
       </c>
       <c r="B268">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>44228</v>
       </c>
       <c r="B269">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>44229</v>
       </c>
       <c r="B270">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44230</v>
       </c>
       <c r="B271">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>44231</v>
       </c>
       <c r="B272">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>44232</v>
       </c>
       <c r="B273">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>44233</v>
       </c>
       <c r="B274">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>44234</v>
       </c>
       <c r="B275">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>44235</v>
       </c>
       <c r="B276">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44236</v>
       </c>
       <c r="B277">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>44237</v>
       </c>
       <c r="B278">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>44238</v>
       </c>
       <c r="B279">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>44239</v>
       </c>
       <c r="B280">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>44240</v>
       </c>
       <c r="B281">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>44241</v>
       </c>
       <c r="B282">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>44242</v>
       </c>
       <c r="B283">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44243</v>
       </c>
       <c r="B284">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44244</v>
       </c>
       <c r="B285">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>44245</v>
       </c>
       <c r="B286">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>44246</v>
       </c>
       <c r="B287">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>44247</v>
       </c>
       <c r="B288">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>44248</v>
       </c>
       <c r="B289">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>44249</v>
       </c>
       <c r="B290">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>44250</v>
       </c>
       <c r="B291">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>44251</v>
       </c>
       <c r="B292">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>44252</v>
       </c>
       <c r="B293">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>44253</v>
       </c>
       <c r="B294">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44254</v>
       </c>
       <c r="B295">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>44255</v>
       </c>
       <c r="B296">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>44256</v>
       </c>
       <c r="B297">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>44257</v>
       </c>
       <c r="B298">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>44258</v>
       </c>
       <c r="B299">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>44259</v>
       </c>
       <c r="B300">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>44260</v>
       </c>
       <c r="B301">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44261</v>
       </c>
       <c r="B302">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44262</v>
       </c>
       <c r="B303">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44263</v>
       </c>
       <c r="B304">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44264</v>
       </c>
       <c r="B305">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>44265</v>
       </c>
       <c r="B306">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>44266</v>
       </c>
       <c r="B307">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>44267</v>
       </c>
       <c r="B308">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>44268</v>
       </c>
       <c r="B309">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>44269</v>
       </c>
       <c r="B310">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44270</v>
       </c>
       <c r="B311">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44271</v>
       </c>
       <c r="B312">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44272</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44273</v>
       </c>
       <c r="B314">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44274</v>
       </c>
       <c r="B315">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44275</v>
       </c>
       <c r="B316">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44276</v>
       </c>
       <c r="B317">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44277</v>
       </c>
       <c r="B318">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44278</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44279</v>
       </c>
       <c r="B320">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44280</v>
       </c>
       <c r="B321">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44281</v>
       </c>
       <c r="B322">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>44282</v>
       </c>
       <c r="B323">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>44283</v>
       </c>
       <c r="B324">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>44284</v>
       </c>
       <c r="B325">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>44285</v>
       </c>
       <c r="B326">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>44286</v>
       </c>
       <c r="B327">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44287</v>
       </c>
       <c r="B328">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>44288</v>
       </c>
       <c r="B329">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>44289</v>
       </c>
       <c r="B330">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>44290</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>44291</v>
       </c>
       <c r="B332">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>44292</v>
       </c>
       <c r="B333">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>44293</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>44294</v>
       </c>
       <c r="B335">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>44295</v>
       </c>
       <c r="B336">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>44296</v>
       </c>
       <c r="B337">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>44297</v>
       </c>
       <c r="B338">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>44298</v>
       </c>
       <c r="B339">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>44299</v>
       </c>
       <c r="B340">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44300</v>
       </c>
       <c r="B341">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44301</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44302</v>
       </c>
       <c r="B343">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>44303</v>
       </c>
       <c r="B344">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>44304</v>
       </c>
       <c r="B345">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44305</v>
       </c>
       <c r="B346">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>44306</v>
       </c>
       <c r="B347">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>44307</v>
       </c>
       <c r="B348">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>44308</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>44309</v>
       </c>
       <c r="B350">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>44310</v>
       </c>
       <c r="B351">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44311</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44312</v>
       </c>
       <c r="B353">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>44313</v>
       </c>
       <c r="B354">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>44314</v>
       </c>
       <c r="B355">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>44315</v>
       </c>
       <c r="B356">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44316</v>
       </c>
       <c r="B357">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44317</v>
       </c>
       <c r="B358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44318</v>
       </c>
       <c r="B359">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>44319</v>
       </c>
       <c r="B360">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>44320</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>44321</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>44322</v>
       </c>
       <c r="B363">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>44323</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>44324</v>
       </c>
       <c r="B365">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>44325</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>44326</v>
       </c>
       <c r="B367">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>44327</v>
       </c>
       <c r="B368">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44328</v>
       </c>
       <c r="B369">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>44329</v>
       </c>
       <c r="B370">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>44330</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>44331</v>
       </c>
       <c r="B372">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>44332</v>
       </c>
       <c r="B373">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44333</v>
       </c>
       <c r="B374">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44334</v>
       </c>
       <c r="B375">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>44335</v>
       </c>
       <c r="B376">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>44336</v>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>44337</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44339</v>
       </c>
       <c r="B379">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44340</v>
       </c>
       <c r="B380">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>44341</v>
       </c>
       <c r="B381">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>44342</v>
       </c>
       <c r="B382">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>44343</v>
       </c>
       <c r="B383">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>44344</v>
       </c>
       <c r="B384">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>44345</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>44346</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44347</v>
       </c>
       <c r="B387">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>44348</v>
       </c>
       <c r="B388">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>44350</v>
       </c>
       <c r="B389">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>44351</v>
       </c>
       <c r="B390">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44352</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>44354</v>
       </c>
       <c r="B392">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>44355</v>
       </c>
       <c r="B393">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>44356</v>
       </c>
       <c r="B394">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>44357</v>
       </c>
       <c r="B395">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>44358</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44359</v>
       </c>
       <c r="B397">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>44360</v>
       </c>
       <c r="B398">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>44361</v>
       </c>
       <c r="B399">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44362</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44363</v>
       </c>
       <c r="B401">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44365</v>
       </c>
       <c r="B402">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44366</v>
       </c>
       <c r="B403">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44367</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44368</v>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44370</v>
       </c>
       <c r="B406">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44371</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44372</v>
       </c>
       <c r="B408">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44373</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44375</v>
       </c>
       <c r="B410">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44376</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44377</v>
       </c>
       <c r="B412">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44378</v>
       </c>
       <c r="B413">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44379</v>
       </c>
       <c r="B414">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44380</v>
       </c>
       <c r="B415">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44381</v>
       </c>
       <c r="B416">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44382</v>
       </c>
       <c r="B417">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44383</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>44384</v>
       </c>
       <c r="B419">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>44385</v>
       </c>
       <c r="B420">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>44386</v>
       </c>
       <c r="B421">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>44387</v>
       </c>
       <c r="B422">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>44388</v>
       </c>
       <c r="B423">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>44389</v>
       </c>
       <c r="B424">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>44390</v>
       </c>
       <c r="B425">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>44391</v>
       </c>
       <c r="B426">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>44392</v>
       </c>
       <c r="B427">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44393</v>
       </c>
       <c r="B428">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>44394</v>
       </c>
       <c r="B429">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>44395</v>
       </c>
       <c r="B430">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>44396</v>
       </c>
       <c r="B431">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44397</v>
       </c>
       <c r="B432">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>44398</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44399</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44400</v>
       </c>
       <c r="B435">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44401</v>
       </c>
       <c r="B436">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44402</v>
       </c>
       <c r="B437">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44403</v>
       </c>
       <c r="B438">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>44404</v>
       </c>
       <c r="B439">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44405</v>
       </c>
       <c r="B440">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44407</v>
       </c>
       <c r="B441">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44408</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>44409</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44410</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44411</v>
       </c>
       <c r="B445">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44412</v>
       </c>
       <c r="B446">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44414</v>
       </c>
       <c r="B447">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44415</v>
       </c>
       <c r="B448">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44417</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>44419</v>
       </c>
       <c r="B450">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>44420</v>
       </c>
       <c r="B451">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>44421</v>
       </c>
       <c r="B452">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44425</v>
       </c>
       <c r="B453">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44426</v>
       </c>
       <c r="B454">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>44427</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>44429</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>44430</v>
       </c>
       <c r="B457">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>44432</v>
       </c>
       <c r="B458">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>44437</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>44439</v>
       </c>
       <c r="B460">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>44441</v>
       </c>
       <c r="B461">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>44448</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>44450</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>44453</v>
       </c>
       <c r="B464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>44454</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>44457</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>44463</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>44468</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>44470</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>44472</v>
       </c>
       <c r="B470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>44473</v>
       </c>
       <c r="B471">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>44494</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>44506</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>44514</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>44517</v>
       </c>
       <c r="B475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>44521</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>44524</v>
       </c>
       <c r="B477">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>44543</v>
       </c>
       <c r="B478">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>44544</v>
       </c>
       <c r="B479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>44548</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>44551</v>
       </c>
       <c r="B481">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>44552</v>
       </c>
       <c r="B482">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>44555</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>44556</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>44559</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>44560</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>44561</v>
       </c>
       <c r="B487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>44563</v>
       </c>
       <c r="B488">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>44564</v>
       </c>
       <c r="B489">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>44570</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>44573</v>
       </c>
       <c r="B491">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>44574</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>44576</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>44577</v>
       </c>
       <c r="B494">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>44579</v>
       </c>
       <c r="B495">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>44580</v>
       </c>
       <c r="B496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>44581</v>
       </c>
       <c r="B497">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>44583</v>
       </c>
       <c r="B498">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>44584</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>44585</v>
       </c>
       <c r="B500">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>44586</v>
       </c>
       <c r="B501">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>44587</v>
       </c>
       <c r="B502">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>44588</v>
       </c>
       <c r="B503">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>44589</v>
       </c>
       <c r="B504">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>44590</v>
       </c>
       <c r="B505">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>44591</v>
       </c>
       <c r="B506">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>44592</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>44593</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>44594</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>44595</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>44596</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>44597</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>44599</v>
       </c>
       <c r="B513">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>44600</v>
       </c>
       <c r="B514">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>44601</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>44602</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>44603</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>44605</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>44606</v>
       </c>
       <c r="B519">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>44607</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>44608</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>44611</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>44612</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>44613</v>
       </c>
       <c r="B524">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>44615</v>
       </c>
       <c r="B525">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>44616</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>44617</v>
       </c>
       <c r="B527">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>44618</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>44621</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>44623</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>44624</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>44625</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>44627</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>44629</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>44630</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>44632</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>44636</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>44638</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>44639</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>44648</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>44649</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>44656</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>44661</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>44667</v>
       </c>
       <c r="B544">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>44676</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>44680</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44687</v>
       </c>
       <c r="B547">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44695</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>44709</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>44711</v>
       </c>
       <c r="B550">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>44715</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>44716</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>44718</v>
       </c>
       <c r="B553">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>44747</v>
       </c>
       <c r="B554">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>44754</v>
       </c>
       <c r="B555">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>44756</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>44757</v>
       </c>
       <c r="B557">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>44760</v>
       </c>
       <c r="B558">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>44761</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>44762</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>44765</v>
       </c>
       <c r="B561">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>44766</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>44767</v>
       </c>
       <c r="B563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>44775</v>
       </c>
       <c r="B564">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>44777</v>
       </c>
       <c r="B565">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>44786</v>
       </c>
       <c r="B566">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>44787</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>44789</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>44790</v>
       </c>
       <c r="B569">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>44792</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>44794</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>44795</v>
       </c>
       <c r="B572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>44796</v>
       </c>
       <c r="B573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>44805</v>
       </c>
       <c r="B574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>44812</v>
       </c>
       <c r="B575">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>44813</v>
       </c>
       <c r="B576">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>44814</v>
       </c>
       <c r="B577">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>44816</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>44824</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>44828</v>
       </c>
       <c r="B580">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>44839</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>44841</v>
       </c>
       <c r="B582">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>44845</v>
       </c>
       <c r="B583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>44862</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>44869</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>44872</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>44873</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44874</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>44878</v>
       </c>
       <c r="B589">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B589"/>
+  <dimension ref="A1:B599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,7 +730,7 @@
         <v>43953</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43957</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43958</v>
       </c>
       <c r="B48">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43971</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>44030</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>44059</v>
       </c>
       <c r="B149">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>44063</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>44124</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -2055,15 +2055,15 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -2111,23 +2111,23 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,23 +2175,23 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -2223,31 +2223,31 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2279,23 +2279,23 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -2327,71 +2327,71 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -2399,47 +2399,47 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -2479,279 +2479,279 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B273">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B276">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B279">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B280">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B282">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B285">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B286">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B289">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B291">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B292">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B295">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B296">
         <v>21</v>
@@ -2759,407 +2759,407 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B297">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B298">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B306">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B311">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B312">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B314">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B315">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B318">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B320">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B326">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B327">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B331">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B338">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B339">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B347">
         <v>6</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B348">
         <v>5</v>
@@ -3175,119 +3175,119 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B351">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B360">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -3383,31 +3383,31 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,23 +3415,23 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44339</v>
+        <v>44337</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -3447,55 +3447,55 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B388">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="B389">
         <v>4</v>
@@ -3503,15 +3503,15 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,23 +3519,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="B392">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B395">
         <v>3</v>
@@ -3551,63 +3551,63 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B397">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,47 +3631,47 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44376</v>
+        <v>44374</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -3679,95 +3679,95 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44377</v>
+        <v>44375</v>
       </c>
       <c r="B412">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44379</v>
+        <v>44377</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44380</v>
+        <v>44378</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44381</v>
+        <v>44379</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44382</v>
+        <v>44380</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44383</v>
+        <v>44381</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="B419">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44385</v>
+        <v>44383</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44387</v>
+        <v>44385</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44388</v>
+        <v>44386</v>
       </c>
       <c r="B423">
         <v>3</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44389</v>
+        <v>44387</v>
       </c>
       <c r="B424">
         <v>2</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44390</v>
+        <v>44388</v>
       </c>
       <c r="B425">
         <v>3</v>
@@ -3791,39 +3791,39 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44392</v>
+        <v>44390</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44393</v>
+        <v>44391</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44394</v>
+        <v>44392</v>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44395</v>
+        <v>44393</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -3831,71 +3831,71 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44396</v>
+        <v>44394</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44397</v>
+        <v>44395</v>
       </c>
       <c r="B432">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44398</v>
+        <v>44396</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44400</v>
+        <v>44398</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44401</v>
+        <v>44399</v>
       </c>
       <c r="B436">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44402</v>
+        <v>44400</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44403</v>
+        <v>44401</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44404</v>
+        <v>44402</v>
       </c>
       <c r="B439">
         <v>2</v>
@@ -3903,15 +3903,15 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44405</v>
+        <v>44403</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44407</v>
+        <v>44404</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -3919,23 +3919,23 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44409</v>
+        <v>44407</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,63 +3943,63 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44411</v>
+        <v>44409</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="B446">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44414</v>
+        <v>44411</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44415</v>
+        <v>44412</v>
       </c>
       <c r="B448">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44419</v>
+        <v>44415</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44421</v>
+        <v>44419</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,23 +4007,23 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44425</v>
+        <v>44420</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,47 +4031,47 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44430</v>
+        <v>44427</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44432</v>
+        <v>44429</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44437</v>
+        <v>44430</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44439</v>
+        <v>44431</v>
       </c>
       <c r="B460">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44441</v>
+        <v>44432</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44448</v>
+        <v>44435</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44450</v>
+        <v>44437</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44453</v>
+        <v>44439</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,15 +4103,15 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44454</v>
+        <v>44441</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44457</v>
+        <v>44450</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44463</v>
+        <v>44454</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44468</v>
+        <v>44457</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,15 +4135,15 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44470</v>
+        <v>44463</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44472</v>
+        <v>44468</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,15 +4151,15 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44494</v>
+        <v>44472</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44506</v>
+        <v>44475</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44514</v>
+        <v>44476</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44517</v>
+        <v>44492</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44521</v>
+        <v>44494</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44524</v>
+        <v>44495</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44543</v>
+        <v>44499</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -4215,23 +4215,23 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44544</v>
+        <v>44506</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44548</v>
+        <v>44514</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44551</v>
+        <v>44517</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,23 +4239,23 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44552</v>
+        <v>44521</v>
       </c>
       <c r="B482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44555</v>
+        <v>44524</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44556</v>
+        <v>44526</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44559</v>
+        <v>44543</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44560</v>
+        <v>44544</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44561</v>
+        <v>44548</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44563</v>
+        <v>44551</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4295,15 +4295,15 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44564</v>
+        <v>44552</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44570</v>
+        <v>44555</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,15 +4311,15 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44573</v>
+        <v>44556</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44574</v>
+        <v>44558</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44576</v>
+        <v>44559</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44577</v>
+        <v>44560</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -4343,15 +4343,15 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44579</v>
+        <v>44563</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44580</v>
+        <v>44564</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -4367,15 +4367,15 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44583</v>
+        <v>44573</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44584</v>
+        <v>44574</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -4383,71 +4383,71 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44585</v>
+        <v>44576</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44586</v>
+        <v>44577</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44587</v>
+        <v>44579</v>
       </c>
       <c r="B502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="B503">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44589</v>
+        <v>44583</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44590</v>
+        <v>44584</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="B506">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44593</v>
+        <v>44587</v>
       </c>
       <c r="B508">
         <v>2</v>
@@ -4455,15 +4455,15 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44595</v>
+        <v>44589</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -4471,39 +4471,39 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44596</v>
+        <v>44590</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44597</v>
+        <v>44591</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44599</v>
+        <v>44592</v>
       </c>
       <c r="B513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44600</v>
+        <v>44593</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44601</v>
+        <v>44594</v>
       </c>
       <c r="B515">
         <v>2</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44602</v>
+        <v>44595</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44603</v>
+        <v>44596</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44605</v>
+        <v>44597</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,23 +4535,23 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44606</v>
+        <v>44599</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44607</v>
+        <v>44601</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44611</v>
+        <v>44603</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44612</v>
+        <v>44605</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,23 +4575,23 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44613</v>
+        <v>44606</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44615</v>
+        <v>44607</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44616</v>
+        <v>44608</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -4599,15 +4599,15 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44617</v>
+        <v>44611</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44618</v>
+        <v>44614</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,23 +4615,23 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44621</v>
+        <v>44615</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44623</v>
+        <v>44617</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44624</v>
+        <v>44618</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44625</v>
+        <v>44621</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44627</v>
+        <v>44624</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44629</v>
+        <v>44625</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44630</v>
+        <v>44626</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44632</v>
+        <v>44627</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44638</v>
+        <v>44630</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44639</v>
+        <v>44632</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,15 +4711,15 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44656</v>
+        <v>44650</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44667</v>
+        <v>44661</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44676</v>
+        <v>44667</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44680</v>
+        <v>44670</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44687</v>
+        <v>44676</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44695</v>
+        <v>44680</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44709</v>
+        <v>44683</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44711</v>
+        <v>44686</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44715</v>
+        <v>44687</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44716</v>
+        <v>44690</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44718</v>
+        <v>44695</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44747</v>
+        <v>44696</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44754</v>
+        <v>44709</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,31 +4831,31 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44756</v>
+        <v>44711</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44757</v>
+        <v>44715</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44760</v>
+        <v>44716</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44761</v>
+        <v>44718</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44762</v>
+        <v>44728</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,15 +4871,15 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44765</v>
+        <v>44733</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44766</v>
+        <v>44747</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44767</v>
+        <v>44749</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44775</v>
+        <v>44754</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44777</v>
+        <v>44756</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,23 +4911,23 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44786</v>
+        <v>44757</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44787</v>
+        <v>44760</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44789</v>
+        <v>44761</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -4935,23 +4935,23 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44790</v>
+        <v>44762</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44792</v>
+        <v>44765</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44794</v>
+        <v>44766</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44795</v>
+        <v>44767</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44796</v>
+        <v>44775</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44805</v>
+        <v>44777</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,15 +4983,15 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44812</v>
+        <v>44786</v>
       </c>
       <c r="B575">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44813</v>
+        <v>44787</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44814</v>
+        <v>44789</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44816</v>
+        <v>44790</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44824</v>
+        <v>44792</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44828</v>
+        <v>44794</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44839</v>
+        <v>44795</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44841</v>
+        <v>44796</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44845</v>
+        <v>44805</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -5055,15 +5055,15 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44862</v>
+        <v>44812</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44869</v>
+        <v>44813</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44872</v>
+        <v>44814</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44873</v>
+        <v>44816</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44874</v>
+        <v>44824</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -5095,9 +5095,89 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>44839</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>44873</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
         <v>44878</v>
       </c>
-      <c r="B589">
+      <c r="B598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B599">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B599"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5135,7 +5135,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44872</v>
+        <v>44869</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44874</v>
+        <v>44873</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44878</v>
+        <v>44874</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -5175,9 +5175,17 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
+        <v>44878</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
         <v>44880</v>
       </c>
-      <c r="B599">
+      <c r="B600">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5186,6 +5186,14 @@
         <v>44880</v>
       </c>
       <c r="B600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B601">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5194,6 +5194,14 @@
         <v>44907</v>
       </c>
       <c r="B601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B602">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5202,6 +5202,22 @@
         <v>44916</v>
       </c>
       <c r="B602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B604">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -2482,7 +2482,7 @@
         <v>44220</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B604"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43952</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5219,6 +5219,46 @@
       </c>
       <c r="B604">
         <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>44947</v>
+      </c>
+      <c r="B609">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B609"/>
+  <dimension ref="A1:B613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,7 +1002,7 @@
         <v>43987</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>44597</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,15 +4575,15 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B525">
         <v>1</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44611</v>
+        <v>44608</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44614</v>
+        <v>44611</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,15 +4615,15 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B530">
         <v>2</v>
@@ -4631,15 +4631,15 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44624</v>
+        <v>44621</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44632</v>
+        <v>44630</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44639</v>
+        <v>44632</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44648</v>
+        <v>44639</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44650</v>
+        <v>44648</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44656</v>
+        <v>44650</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44661</v>
+        <v>44656</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,39 +4743,39 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44667</v>
+        <v>44661</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44670</v>
+        <v>44667</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44676</v>
+        <v>44670</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44680</v>
+        <v>44676</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44683</v>
+        <v>44680</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -4791,23 +4791,23 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44687</v>
+        <v>44686</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44690</v>
+        <v>44687</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44695</v>
+        <v>44690</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44696</v>
+        <v>44695</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44709</v>
+        <v>44696</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,23 +4831,23 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44718</v>
+        <v>44716</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44728</v>
+        <v>44718</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44733</v>
+        <v>44728</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44747</v>
+        <v>44733</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44749</v>
+        <v>44747</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44754</v>
+        <v>44749</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -4911,15 +4911,15 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B566">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44760</v>
+        <v>44757</v>
       </c>
       <c r="B567">
         <v>2</v>
@@ -4927,15 +4927,15 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -4943,23 +4943,23 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44765</v>
+        <v>44762</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44775</v>
+        <v>44767</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44777</v>
+        <v>44775</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44786</v>
+        <v>44777</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B576">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44789</v>
+        <v>44787</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -5007,23 +5007,23 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44792</v>
+        <v>44790</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44794</v>
+        <v>44792</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44805</v>
+        <v>44796</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -5055,23 +5055,23 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44812</v>
+        <v>44805</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44824</v>
+        <v>44816</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44828</v>
+        <v>44824</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44839</v>
+        <v>44828</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44841</v>
+        <v>44839</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44845</v>
+        <v>44841</v>
       </c>
       <c r="B592">
         <v>1</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44862</v>
+        <v>44845</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44868</v>
+        <v>44850</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44869</v>
+        <v>44862</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44872</v>
+        <v>44868</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44874</v>
+        <v>44872</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44878</v>
+        <v>44873</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44880</v>
+        <v>44874</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44907</v>
+        <v>44878</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44916</v>
+        <v>44880</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44918</v>
+        <v>44907</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44922</v>
+        <v>44916</v>
       </c>
       <c r="B604">
         <v>1</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44932</v>
+        <v>44918</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44935</v>
+        <v>44922</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44936</v>
+        <v>44932</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44946</v>
+        <v>44935</v>
       </c>
       <c r="B608">
         <v>1</v>
@@ -5255,10 +5255,42 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
         <v>44947</v>
       </c>
-      <c r="B609">
-        <v>2</v>
+      <c r="B611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B613">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B613"/>
+  <dimension ref="A1:B618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5290,6 +5290,46 @@
         <v>44958</v>
       </c>
       <c r="B613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B618">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_loreto.xlsx
+++ b/regiones/fallecidos_loreto.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B618"/>
+  <dimension ref="A1:B619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,7 +842,7 @@
         <v>43967</v>
       </c>
       <c r="B57">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43974</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5330,6 +5330,14 @@
         <v>44997</v>
       </c>
       <c r="B618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B619">
         <v>1</v>
       </c>
     </row>
